--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2907,7 +2907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>189</v>
       </c>
@@ -4503,12 +4503,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN29">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
